--- a/covid19_drdfm/data/example-output/CA/df.xlsx
+++ b/covid19_drdfm/data/example-output/CA/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5983606557377048</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.0223953120859417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.2524861544685915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.581967213114754</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.02256007640710215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.2654377995074342</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.581967213114754</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.02027752312245443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.2459929322448514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.02171449960525181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.2275152759198055</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.5655737704918034</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.02134387813235388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.2291381574401313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.5573770491803278</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.02162150508282938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.2962463824873218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.540983606557377</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.01984326100909813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.2438012267464746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.5245901639344264</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.0200244718302087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.2297052934216137</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.5163934426229508</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.02173944440370969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.2421465393319138</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.0238678349998969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.1898865740126225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.4918032786885246</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.02353753899577674</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.3780646635552608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.4836065573770492</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.01921601298334431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.02285484434385731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.2843205992523108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.4754098360655737</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.01819299229537413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.2298935775941046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.459016393442623</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.02113241265973684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.3046421425692675</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.4508196721311475</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.02229777267545584</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.2277720321691244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.4426229508196721</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.02144014858343492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.243048659040375</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.4344262295081966</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.02054333740369246</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2261577151183936</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.02220220672580244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.3283857985396792</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.4180327868852459</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.02200991985908897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.2146463311551394</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.4098360655737704</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.02266856383943348</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1373367079825676</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.4016393442622951</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.0243348509079363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.3169967855341763</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.3852459016393442</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.02435761177899603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.3298475346086709</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.3770491803278689</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.02405062900353472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.3005577215208721</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.3688524590163935</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.01716899261999291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.1567765617964676</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.2527889247779927</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.3524590163934425</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.0179421771898327</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.3029844248083823</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.3442622950819672</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.01710218811200459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.2350271434455381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.02176873233474556</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.2316496464700432</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.3196721311475409</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.02187930519559015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.2129132669054081</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.3114754098360655</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.02221329795192369</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2423045392857895</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.3032786885245901</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.02310989067004748</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.2694264543157527</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2950819672131147</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.02404175154798425</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.2423916976921555</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2868852459016394</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.02378666744165617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.2376643945601256</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.0208692404997728</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2602551640834951</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2704918032786885</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.02117133396524747</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2621409874867093</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2622950819672131</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.02162353543861523</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.3129893005228088</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.2459016393442623</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.02682222942854689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.3610220270371247</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.2161675153340392</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.2377049180327869</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.02307795308308699</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.2976108229770014</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.02288570529716544</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.3028878732380165</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.221311475409836</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.02259855099612995</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.2067608394262494</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.02162076467756395</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.2171524865519319</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2049180327868853</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.02186795805775211</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2382059512265325</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.02017265474186223</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.2820836679202182</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1885245901639345</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.02065148975159698</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.2466492836811618</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1721311475409836</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.02153110688359405</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.2275847277102201</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1639344262295082</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.02009362833328153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.2470505746716558</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.01964669939941052</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2927733011932208</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.02048832377567928</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.3103589441629844</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.02242491791828813</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.1511739558639401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.2838247549186032</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.02307902720169109</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.2341857066128501</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.02132857356876634</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.3009315074469431</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.01868088951868848</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.2339578844234589</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.01975431045646542</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.2156293775585831</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.01950401419159075</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.2377824891791278</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.02249106140250854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.2732185287975681</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.02183417414171741</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.2582288436652498</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.02167803218253442</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.2227787172701441</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.02034639705694894</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2560772979601944</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.02141935340980186</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.3116387270928672</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1229508196721312</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.02056139799067409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.2758785134003787</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1229508196721312</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.02019407915894636</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.5706935442076347</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.28619043541219</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1065573770491803</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.02147129728720145</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.2836869946300703</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.0226922360083975</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.2798559469580231</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.0901639344262295</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.0218925747651195</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.2219510351947614</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.0901639344262295</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.02333853705635186</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.2167521473091121</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.08196721311475413</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.02258473423668596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2277053320948393</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.08196721311475413</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.02361522692525954</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2808225897300642</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.07377049180327866</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.02233624427985932</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.2561196177580882</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.07377049180327866</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.02149411118052133</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.2189897765866797</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.0655737704918033</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.0230566933379506</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.2487625873734812</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.05737704918032782</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.0229162765855128</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.1760906748589438</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.04918032786885246</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.02300905858620379</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.4169601038639026</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.04918032786885246</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.01920000044987639</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.3588402572839243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.3037476115206006</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.04098360655737709</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.0198565223332859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.276628586900532</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.02046432729416921</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.270474703172859</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.02175559430257399</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.2457059261263664</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.02177260161770656</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.190245056187262</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.02219909345173102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.2091918253696586</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.02181499793173996</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.2926802666902459</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.02188477915862459</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.2335244046064621</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.02105066882018789</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.2248711353655434</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.02022389084134659</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.239617499194959</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.02098629052184534</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2403209405175595</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.02110692783036134</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.3896290451597184</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.02173539772028753</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.7570841443016522</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.3107624754191934</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.02073578276926395</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.2804112278840823</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.0200380424356608</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.2593044163250628</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.02179755335176367</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.2309275079126264</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.0231803666044617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1994610429881233</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.02313824551306131</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2406097627798078</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.008196721311475419</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.02194033568852039</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.2619385690999535</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.008196721311475419</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.02257438904794706</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.2634673028663941</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.02235919679956056</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.2130600421356388</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.02178109647178877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2237970458721959</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.02267469902255263</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.3202717895901947</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.02147481493404298</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.3154103671972772</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.01708333457020963</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.2775641770370199</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.01751848526388843</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2797129384700286</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.01949815307488329</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.3544002506896017</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.006225935373486756</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>0.9836065573770492</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.001985546134067023</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.3261071972991845</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.3867067279748511</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.8360655737704916</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.03496801822299403</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.3215654461805065</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.7786885245901638</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.03442522006552498</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.2109754054356232</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.6557377049180328</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.03470367302835269</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.254864012659055</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.5245901639344264</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.0242713517314906</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.459016393442623</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.02432248525269844</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.134685330692541</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.4344262295081966</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.02182088336111731</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.1434888431950365</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.4344262295081966</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.0229120222659609</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.709809926843771</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.1584569833607938</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.4016393442622951</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.02315703913884792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2461817639788375</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.3852459016393442</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.02158553067079486</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1846680549001855</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.3688524590163935</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.02176791996125841</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.1828337354279792</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.02186666625905124</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.253040490092471</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.02153867898440108</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2813278429920213</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.02219667111221225</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.4298087642032929</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.2868852459016394</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.02251808668253012</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1293719823863995</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.2540983606557377</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.0229575630928339</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.1343608671907201</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.2049180327868853</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.02268289161702155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.2292190447807638</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.180327868852459</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.0223826156962717</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.2296626538636201</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.02273493454726448</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.1619462099284759</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.1557377049180328</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.01679635217220884</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.3343470518419606</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.01641370190546682</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.2761289476977726</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.1147540983606557</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.01431408356167728</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.2290719322314842</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.07377049180327866</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.02085818487420834</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1913377867609428</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.05737704918032782</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.0184515467588083</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.2393688673294666</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.03278688524590162</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.01618388926240186</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.208318950870241</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.02459016393442626</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.02314989154760753</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.2930869388945644</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.02099929020306525</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.2472063117759944</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.01639344262295078</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.02053605315152652</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.2395442495050409</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.01901264756884697</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2535443390388641</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.02066473277677026</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.2896604215604011</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.02092633171109977</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/CA/df.xlsx
+++ b/covid19_drdfm/data/example-output/CA/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,64 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +525,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5983606557377048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +563,40 @@
         <v>0.0223953120859417</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.8137921450802694</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3669702901624756</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2524861544685915</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9714285714285715</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.581967213114754</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.005758651820034037</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005879591091942508</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +607,40 @@
         <v>0.02256007640710215</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.8116108290468221</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3891574322572443</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.2654377995074342</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9714285714285715</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.581967213114754</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.006014113469613907</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.006072700748066841</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +651,40 @@
         <v>0.02027752312245443</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6892739320753906</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2456767616829317</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.2459929322448514</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9428571428571431</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.5737704918032787</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.006496370322050084</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.006430126949034012</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +695,40 @@
         <v>0.02171449960525181</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6883711991694523</v>
       </c>
       <c r="D6" t="n">
+        <v>0.4171039678746884</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.2275152759198055</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9428571428571431</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.5655737704918034</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008532311998552908</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.007913781433258323</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +739,40 @@
         <v>0.02134387813235388</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6874803069014264</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3727672776549191</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.2291381574401313</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.9428571428571431</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.5573770491803278</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.007989380714671515</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00752782527204619</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +783,40 @@
         <v>0.02162150508282938</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6012318117663429</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4421476299183541</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2962463824873218</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.9428571428571431</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.540983606557377</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.007242711710084379</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.006994081401636168</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +827,40 @@
         <v>0.01984326100909813</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.6011890819390239</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2302466178226124</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.2438012267464746</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.9142857142857146</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.5245901639344264</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.004698585376372181</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.005157206484605174</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +871,40 @@
         <v>0.0200244718302087</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.6011464662848267</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2522324911649105</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.2297052934216137</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.9142857142857146</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.5163934426229508</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00495024309293913</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.005347008241200366</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +915,40 @@
         <v>0.02173944440370969</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.7737443385307128</v>
       </c>
       <c r="D11" t="n">
+        <v>0.4738566532128587</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.2421465393319138</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.9428571428571431</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4999999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.004990025715258728</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.005383127450660672</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +959,40 @@
         <v>0.0238678349998969</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.7726400062717932</v>
       </c>
       <c r="D12" t="n">
+        <v>0.7290344056618974</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1898865740126225</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.9142857142857146</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4918032786885246</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00804432707132624</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.007604494601515397</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1003,40 @@
         <v>0.02353753899577674</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7715474101981137</v>
       </c>
       <c r="D13" t="n">
+        <v>0.6907059472125561</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.3780646635552608</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.9142857142857146</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.4836065573770492</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.007590348991477923</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.007282499585655512</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1047,40 @@
         <v>0.01921601298334431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02285484434385731</v>
+        <v>0.6169353048260247</v>
       </c>
       <c r="D14" t="n">
+        <v>0.123850326002508</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.2843205992523108</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.9142857142857146</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.4754098360655737</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.003808875079691729</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.005908666513126788</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1091,40 @@
         <v>0.01819299229537413</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.6160955771769172</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.2298935775941046</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.8857142857142861</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.459016393442623</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.002346419035158824</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.004846181381960438</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1135,40 @@
         <v>0.02113241265973684</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.6152619973135056</v>
       </c>
       <c r="D16" t="n">
+        <v>0.3491350225578846</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.3046421425692675</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.8857142857142861</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.4508196721311475</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.006537480607159578</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.007882152377038248</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1179,40 @@
         <v>0.02229777267545584</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.6642182774591937</v>
       </c>
       <c r="D17" t="n">
+        <v>0.6889974533735461</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.2277720321691244</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4426229508196721</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.006083237988199864</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.00755059268024777</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1223,40 @@
         <v>0.02144014858343492</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.6639680224372583</v>
       </c>
       <c r="D18" t="n">
+        <v>0.586078071433917</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.243048659040375</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.4344262295081966</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.004867195413410382</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.006666794179036718</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1267,40 @@
         <v>0.02054333740369246</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6637190138189087</v>
       </c>
       <c r="D19" t="n">
+        <v>0.4784845523905885</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2261577151183936</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.4262295081967213</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.003595173487586225</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.005742431438947496</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1311,40 @@
         <v>0.02220220672580244</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.7064088108361068</v>
       </c>
       <c r="D20" t="n">
+        <v>0.4753165350964413</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.3283857985396792</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.8285714285714292</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.4180327868852459</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004360903919144262</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.006295325675156979</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1355,40 @@
         <v>0.02200991985908897</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.7057154543447696</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4533021115178507</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.2146463311551394</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.8285714285714292</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.4098360655737704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.004108736151653569</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00611032573300558</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1399,40 @@
         <v>0.02266856383943348</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.7050296173892223</v>
       </c>
       <c r="D22" t="n">
+        <v>0.5328452700505862</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1373367079825676</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.7714285714285722</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.4016393442622951</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.005070381658463902</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.006805279336272466</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1443,40 @@
         <v>0.0243348509079363</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.7591829884160083</v>
       </c>
       <c r="D23" t="n">
+        <v>0.7117687543489164</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.3169967855341763</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3852459016393442</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.003970550611803044</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.006005810961558249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1487,40 @@
         <v>0.02435761177899603</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.7582409782813232</v>
       </c>
       <c r="D24" t="n">
+        <v>0.7179959991850386</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.3298475346086709</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3770491803278689</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004076727454558312</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.006080637390609419</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1531,40 @@
         <v>0.02405062900353472</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.7573080240907945</v>
       </c>
       <c r="D25" t="n">
+        <v>0.6847679686486574</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.3005577215208721</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3688524590163935</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.003710983979945493</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.005813367977696742</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1575,40 @@
         <v>0.01716899261999291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1567765617964676</v>
+        <v>0.5816021734796715</v>
       </c>
       <c r="D26" t="n">
+        <v>0.1157814926527376</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.2527889247779927</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.3524590163934425</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.004998637662344215</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.006595365435086541</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1619,40 @@
         <v>0.0179421771898327</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.5812560929705863</v>
       </c>
       <c r="D27" t="n">
+        <v>0.2072239672195627</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.3029844248083823</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.3442622950819672</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.006095347252321887</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.007388342268534675</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1663,40 @@
         <v>0.01710218811200459</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.580910913558633</v>
       </c>
       <c r="D28" t="n">
+        <v>0.1061119367382608</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.2350271434455381</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.3360655737704918</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.004890521351584655</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.006512876749194643</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1707,40 @@
         <v>0.02176873233474556</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.7359509365566917</v>
       </c>
       <c r="D29" t="n">
+        <v>0.2345588705019075</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.2316496464700432</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.3196721311475409</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.004932529739295892</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.006541309277278584</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1751,40 @@
         <v>0.02187930519559015</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.7342409501420152</v>
       </c>
       <c r="D30" t="n">
+        <v>0.2491086621939883</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.2129132669054081</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.3114754098360655</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.005105523716049737</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.006664720682472961</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1795,40 @@
         <v>0.02221329795192369</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.7325616822360791</v>
       </c>
       <c r="D31" t="n">
+        <v>0.2903087549180018</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2423045392857895</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.3032786885245901</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00559707854507283</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.007019090661675237</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1839,40 @@
         <v>0.02310989067004748</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.7318643897793194</v>
       </c>
       <c r="D32" t="n">
+        <v>0.4515247426518949</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.2694264543157527</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2950819672131147</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005268647722126176</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.006779045652077763</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1883,40 @@
         <v>0.02404175154798425</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.73097863793079</v>
       </c>
       <c r="D33" t="n">
+        <v>0.5655386437102664</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.2423916976921555</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2868852459016394</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.006633437522232641</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.007766498742575883</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1927,40 @@
         <v>0.02378666744165617</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.7301032909952959</v>
       </c>
       <c r="D34" t="n">
+        <v>0.537821242426031</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.2376643945601256</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2786885245901639</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006304135649694005</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.00752586538203674</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1971,40 @@
         <v>0.0208692404997728</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.6375877058316661</v>
       </c>
       <c r="D35" t="n">
+        <v>0.4187978254101125</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2602551640834951</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2704918032786885</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.006719264407794154</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.007824917564911844</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2015,40 @@
         <v>0.02117133396524747</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.6372855333373478</v>
       </c>
       <c r="D36" t="n">
+        <v>0.4543474477275966</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2621409874867093</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2622950819672131</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.007142972567012304</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.008130210018331047</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2059,40 @@
         <v>0.02162353543861523</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.6369856712614984</v>
       </c>
       <c r="D37" t="n">
+        <v>0.5078190292812902</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.3129893005228088</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.2459016393442623</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007780910451541749</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.008590825717235826</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2103,40 @@
         <v>0.02682222942854689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3610220270371247</v>
+        <v>0.6813240926653152</v>
       </c>
       <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.2161675153340392</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2377049180327869</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01184788016195586</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01087056746209169</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2147,40 @@
         <v>0.02307795308308699</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.6808277245731735</v>
       </c>
       <c r="D39" t="n">
+        <v>0.5550598172492792</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.2976108229770014</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2295081967213115</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.006530574255135148</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.007019866058390632</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2191,40 @@
         <v>0.02288570529716544</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.680336003160369</v>
       </c>
       <c r="D40" t="n">
+        <v>0.5340741904694776</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.3028878732380165</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.221311475409836</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.006280734742019942</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.006842694915518101</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2235,40 @@
         <v>0.02259855099612995</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.6613282752250256</v>
       </c>
       <c r="D41" t="n">
+        <v>0.4123771136850056</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.2067608394262494</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2131147540983606</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00722907015925197</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.007534067194636116</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2279,40 @@
         <v>0.02162076467756395</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.6610855967278775</v>
       </c>
       <c r="D42" t="n">
+        <v>0.2974490594433761</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.2171524865519319</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2049180327868853</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.005840185084059451</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.006531049565236649</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2323,40 @@
         <v>0.02186795805775211</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.6608441550605438</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3287193371382007</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2382059512265325</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1967213114754098</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.006198968515797248</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.006794924985379296</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2367,40 @@
         <v>0.02017265474186223</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.6126501315619824</v>
       </c>
       <c r="D44" t="n">
+        <v>0.2432506054662888</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.2820836679202182</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1885245901639345</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.007118612605507971</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.007465335039196453</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2411,40 @@
         <v>0.02065148975159698</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.6124915926434044</v>
       </c>
       <c r="D45" t="n">
+        <v>0.3003321054914623</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.2466492836811618</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.6285714285714263</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1721311475409836</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.007783160756269617</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.007950764657532564</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2455,40 @@
         <v>0.02153110688359405</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.6123339090378733</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4052544796047804</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.2275847277102201</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.6285714285714263</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1639344262295082</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.00901973596167845</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.008850825742784224</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2499,40 @@
         <v>0.02009362833328153</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.5492241716722972</v>
       </c>
       <c r="D47" t="n">
+        <v>0.3484295454213063</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.2470505746716558</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.6285714285714263</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1557377049180328</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.007872206321576203</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.008022513964168006</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2543,40 @@
         <v>0.01964669939941052</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.5492076011502474</v>
       </c>
       <c r="D48" t="n">
+        <v>0.2948316162682672</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2927733011932208</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.6285714285714263</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1557377049180328</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.007214331740643803</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.007549121237534357</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2587,40 @@
         <v>0.02048832377567928</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.5491909927296617</v>
       </c>
       <c r="D49" t="n">
+        <v>0.3950465996320138</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.3103589441629844</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1475409836065574</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.008395131774662296</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.008408600657649151</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2631,40 @@
         <v>0.02242491791828813</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1511739558639401</v>
+        <v>0.6733089739156747</v>
       </c>
       <c r="D50" t="n">
+        <v>0.6404372773493743</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.2838247549186032</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1475409836065574</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.004471869010406858</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.007702346049783258</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2675,40 @@
         <v>0.02307902720169109</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.6729893435443222</v>
       </c>
       <c r="D51" t="n">
+        <v>0.7187411151050356</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.2341857066128501</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.139344262295082</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.00542600105391852</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.008383457428904839</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2719,40 @@
         <v>0.02132857356876634</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.672671680399341</v>
       </c>
       <c r="D52" t="n">
+        <v>0.5100085544638852</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.3009315074469431</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.139344262295082</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.002949135019275132</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.006577418357457684</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2763,40 @@
         <v>0.01868088951868848</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.5661077182793911</v>
       </c>
       <c r="D53" t="n">
+        <v>0.07656944467556279</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.2339578844234589</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.002113770791638254</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.005961462883754843</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2807,40 @@
         <v>0.01975431045646542</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.5659858463773412</v>
       </c>
       <c r="D54" t="n">
+        <v>0.203880756876343</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.2156293775585831</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.003645624093447407</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.007061686799202393</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2851,40 @@
         <v>0.01950401419159075</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.5658640221674903</v>
       </c>
       <c r="D55" t="n">
+        <v>0.1731866025248834</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.2377824891791278</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00328883098921392</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.006792861708459399</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2895,40 @@
         <v>0.02249106140250854</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.6700162500057453</v>
       </c>
       <c r="D56" t="n">
+        <v>0.5561140669251975</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.2732185287975681</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.004544236202362734</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.007692873098182968</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2939,40 @@
         <v>0.02183417414171741</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.6697325891747712</v>
       </c>
       <c r="D57" t="n">
+        <v>0.4784637750882553</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.2582288436652498</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.003628011097327312</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.007018687765576771</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2983,40 @@
         <v>0.02167803218253442</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.6694504659813596</v>
       </c>
       <c r="D58" t="n">
+        <v>0.460573564383688</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.2227787172701441</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.00342600343915116</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.006862358092146972</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3027,40 @@
         <v>0.02034639705694894</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.6152765749086617</v>
       </c>
       <c r="D59" t="n">
+        <v>0.2647369930793854</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2560772979601944</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.003023641153021005</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.006560877015344289</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3071,40 @@
         <v>0.02141935340980186</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.6151416125495347</v>
       </c>
       <c r="D60" t="n">
+        <v>0.3928414753719068</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.3116387270928672</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1229508196721312</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.004562250269155968</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.007666566698790712</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3115,40 @@
         <v>0.02056139799067409</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.6150073347901474</v>
       </c>
       <c r="D61" t="n">
+        <v>0.2904557535335244</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2758785134003787</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1229508196721312</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.003345825447156352</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.006775124675349073</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3159,40 @@
         <v>0.02019407915894636</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5706935442076347</v>
+        <v>0.6817591825575471</v>
       </c>
       <c r="D62" t="n">
+        <v>0.271043816545287</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.28619043541219</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1065573770491803</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.003554539770592037</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.005708119281816058</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3203,40 @@
         <v>0.02147129728720145</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.6813273071928235</v>
       </c>
       <c r="D63" t="n">
+        <v>0.4240318703644065</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.2836869946300703</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.09836065573770492</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.005383632391873106</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.007030614519671496</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3247,40 @@
         <v>0.0226922360083975</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.6808989500332073</v>
       </c>
       <c r="D64" t="n">
+        <v>0.5702943544677772</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.2798559469580231</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.0901639344262295</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.007132342526039062</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.008294879491413928</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3291,40 @@
         <v>0.0218925747651195</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.6954498288862265</v>
       </c>
       <c r="D65" t="n">
+        <v>0.5045249899859875</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.2219510351947614</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.0901639344262295</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.00480330268744815</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.006603079802007208</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3335,40 @@
         <v>0.02333853705635186</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.6950229625747943</v>
       </c>
       <c r="D66" t="n">
+        <v>0.6780827717640502</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.2167521473091121</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.08196721311475413</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.006885479863356243</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0081091686508431</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3379,40 @@
         <v>0.02258473423668596</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.6945988589300305</v>
       </c>
       <c r="D67" t="n">
+        <v>0.589037811282995</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2277053320948393</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.08196721311475413</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.005828810928669081</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0073398363617004</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3423,40 @@
         <v>0.02361522692525954</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.6508785643723778</v>
       </c>
       <c r="D68" t="n">
+        <v>0.5881536134396993</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2808225897300642</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.07377049180327866</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.006408454880362398</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.007756764692934858</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3467,40 @@
         <v>0.02233624427985932</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.6506856842312772</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4376307472097284</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.2561196177580882</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.07377049180327866</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.004613537157199386</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.006452327664376942</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3511,40 @@
         <v>0.02149411118052133</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.6504936809681191</v>
       </c>
       <c r="D70" t="n">
+        <v>0.3392147469960931</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.2189897765866797</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.0655737704918033</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.003441420612379435</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.005599419403765152</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3555,40 @@
         <v>0.0230566933379506</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.7366193018170385</v>
       </c>
       <c r="D71" t="n">
+        <v>0.4314027864725771</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.2487625873734812</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.05737704918032782</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.00534763432072988</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.006978139451768788</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3599,40 @@
         <v>0.0229162765855128</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.7355910327072913</v>
       </c>
       <c r="D72" t="n">
+        <v>0.4173576062557162</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.1760906748589438</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.04918032786885246</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.005180684100627999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.00685398627738556</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3643,40 @@
         <v>0.02300905858620379</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.7345763837300086</v>
       </c>
       <c r="D73" t="n">
+        <v>0.431102262940185</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.4169601038639026</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.04918032786885246</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.005345900608526286</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.006970668861271927</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3687,40 @@
         <v>0.01920000044987639</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3588402572839243</v>
+        <v>0.6062947773578437</v>
       </c>
       <c r="D74" t="n">
+        <v>0.0844664039060255</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.3037476115206006</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.04098360655737709</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.004829939075891614</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.00620275418570384</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3731,40 @@
         <v>0.0198565223332859</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.6057923180234288</v>
       </c>
       <c r="D75" t="n">
+        <v>0.1616352101793919</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.276628586900532</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.6857142857142868</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.005751957839539579</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.006871131337752535</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3775,40 @@
         <v>0.02046432729416921</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.6052928067297481</v>
       </c>
       <c r="D76" t="n">
+        <v>0.2329959397061094</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.270474703172859</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.006604644987132143</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.007489247918954783</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3819,40 @@
         <v>0.02175559430257399</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.6946653176859879</v>
       </c>
       <c r="D77" t="n">
+        <v>0.4618130500030603</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.2457059261263664</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.006124038217461002</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.007140812875034231</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3863,40 @@
         <v>0.02177260161770656</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.6941189159608189</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4644965035482842</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.190245056187262</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.00615327655823274</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.00716198301031459</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3907,40 @@
         <v>0.02219909345173102</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.6935776126732094</v>
       </c>
       <c r="D79" t="n">
+        <v>0.5160484090449857</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.2091918253696586</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.006766679273458641</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.007606634955966995</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3951,40 @@
         <v>0.02181499793173996</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.6041104142045537</v>
       </c>
       <c r="D80" t="n">
+        <v>0.475423380706183</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.2926802666902459</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.006934228154656044</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.007728072028993371</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3995,40 @@
         <v>0.02188477915862459</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.6040662443581648</v>
       </c>
       <c r="D81" t="n">
+        <v>0.4838979652756147</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.2335244046064621</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.007031440881278302</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.007798520293617663</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4039,40 @@
         <v>0.02105066882018789</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.604022177451031</v>
       </c>
       <c r="D82" t="n">
+        <v>0.3844730784029856</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.2248711353655434</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.005839037672142696</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.00693408073432034</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4083,40 @@
         <v>0.02022389084134659</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.5929600567858937</v>
       </c>
       <c r="D83" t="n">
+        <v>0.4150338179077853</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.239617499194959</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.006210583155727869</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.007203403245257301</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4127,40 @@
         <v>0.02098629052184534</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.592938760801928</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5052433985077175</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2403209405175595</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.007284904790973021</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.007982193343495576</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4171,40 @@
         <v>0.02110692783036134</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.5929174999658279</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5188542077615828</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.3896290451597184</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.007443731036474216</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.008097308797697468</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4215,40 @@
         <v>0.02173539772028753</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7570841443016522</v>
+        <v>0.5667036401802384</v>
       </c>
       <c r="D86" t="n">
+        <v>0.3931966880733824</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.3107624754191934</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.005048369622512094</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.007838601248364331</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4259,40 @@
         <v>0.02073578276926395</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.5666883104297252</v>
       </c>
       <c r="D87" t="n">
+        <v>0.2738931636143018</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.2804112278840823</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.003629790699256583</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.006801893884423729</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4303,40 @@
         <v>0.0200380424356608</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.5666729918092388</v>
       </c>
       <c r="D88" t="n">
+        <v>0.1906238636337452</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.2593044163250628</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.002641858851004135</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.006077452117943695</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4347,40 @@
         <v>0.02179755335176367</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.7124718408741425</v>
       </c>
       <c r="D89" t="n">
+        <v>0.3647221692161476</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.2309275079126264</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.002338282823102438</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.005849197443272489</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4391,40 @@
         <v>0.0231803666044617</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.7118510459147879</v>
       </c>
       <c r="D90" t="n">
+        <v>0.53182513590495</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1994610429881233</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.004347035169559738</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.007297303757919756</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4435,40 @@
         <v>0.02313824551306131</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.7112358822558129</v>
       </c>
       <c r="D91" t="n">
+        <v>0.5287985196292534</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2406097627798078</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.008196721311475419</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.004322230675090986</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.007271284514107619</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4479,40 @@
         <v>0.02194033568852039</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.624746716012167</v>
       </c>
       <c r="D92" t="n">
+        <v>0.291365482180328</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.2619385690999535</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.7714285714285722</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.008196721311475419</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.00370693549847</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.006817268444237332</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4523,40 @@
         <v>0.02257438904794706</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.6245170230219832</v>
       </c>
       <c r="D93" t="n">
+        <v>0.3682957075757939</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.2634673028663941</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.7714285714285722</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.004633383556526399</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.007480986330892041</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4567,40 @@
         <v>0.02235919679956056</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.6242888530210489</v>
       </c>
       <c r="D94" t="n">
+        <v>0.3438351794621256</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.2130600421356388</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.00434790354077414</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.007266203761608112</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4611,40 @@
         <v>0.02178109647178877</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.5882387367644111</v>
       </c>
       <c r="D95" t="n">
+        <v>0.440392242927672</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2237970458721959</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.003267667070894065</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.006475342337959441</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4655,40 @@
         <v>0.02267469902255263</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.5881061036378344</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5481357255169989</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.3202717895901947</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.8285714285714292</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.004566682295464911</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.007409351793184303</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4699,40 @@
         <v>0.02147481493404298</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.5879739111721126</v>
       </c>
       <c r="D97" t="n">
+        <v>0.4059616496016832</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.3154103671972772</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.002878482287738461</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.00617788997848453</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4743,40 @@
         <v>0.01708333457020963</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0.4921865990690101</v>
       </c>
       <c r="D98" t="n">
+        <v>0.2475230543177552</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.2775641770370199</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.005475567645091854</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.00161813917278695</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4787,40 @@
         <v>0.01751848526388843</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.4920354360633932</v>
       </c>
       <c r="D99" t="n">
+        <v>0.2988443781928253</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2797129384700286</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.8571428571428541</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.006087130567852185</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.002061411102419888</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.4942389660387735</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.4353043047996041</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4831,40 @@
         <v>0.01949815307488329</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.4918835564828028</v>
       </c>
       <c r="D100" t="n">
+        <v>0.5345443722219553</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.3544002506896017</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.1311475409836065</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.008902512745938217</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.004102137269580261</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5777991658646134</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.4546841497608444</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4875,40 @@
         <v>0.006225935373486756</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.03273969519923159</v>
       </c>
       <c r="D101" t="n">
+        <v>0.9191855087223577</v>
+      </c>
+      <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
+        <v>0.05714285714285694</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.9836065573770492</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01149952388759146</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.005984386287497355</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5634905357715753</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5139782285997031</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4919,40 @@
         <v>0.001985546134067023</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.01683344851051172</v>
       </c>
       <c r="D102" t="n">
+        <v>0.4687887741567752</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.3261071972991845</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.006115200929978767</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.002080513038161882</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.4774004308171776</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.4139864753422398</v>
       </c>
     </row>
     <row r="103">
@@ -2194,10 +4966,37 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.2909317705397284</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.3867067279748511</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.8360655737704916</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.003988437177210683</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0005379871014648116</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.5773683486869242</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.4460044532409698</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5007,40 @@
         <v>0.03496801822299403</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D104" t="n">
+        <v>0.2230033272775618</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.3215654461805065</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.428571428571427</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.7786885245901638</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.004494311420974889</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0009037806983406083</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.5767817040194326</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.4768678871845621</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5051,40 @@
         <v>0.03442522006552498</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.9906376087746387</v>
       </c>
       <c r="D105" t="n">
+        <v>0.2144354656669296</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.2109754054356232</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.2571428571428562</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.6557377049180328</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.004389446142019156</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0008266551216611056</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.3535542417159356</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.3704230578921326</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5095,40 @@
         <v>0.03470367302835269</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.9816652330436721</v>
       </c>
       <c r="D106" t="n">
+        <v>0.3007881021849917</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.254864012659055</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.05714285714285694</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.5245901639344264</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.005419144629015275</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.001571841879089875</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.4248040698473807</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.396668316015174</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5139,40 @@
         <v>0.0242713517314906</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.8791262266142983</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.59492908792816</v>
       </c>
       <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.459016393442623</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.006670069354934192</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.002477230178111189</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.508850084788487</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.4410357908626092</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5183,40 @@
         <v>0.02432248525269844</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.8755788823161543</v>
       </c>
       <c r="D108" t="n">
+        <v>0.6043336055499634</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.134685330692541</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.4344262295081966</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.006785324785907772</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.002559158469382816</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.7151198496723039</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.5825292759360052</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5227,40 @@
         <v>0.02182088336111731</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.872119397284898</v>
       </c>
       <c r="D109" t="n">
+        <v>0.3089501399671061</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1434888431950365</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.08571428571428541</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.4344262295081966</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.003257615464436008</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5271,40 @@
         <v>0.0229120222659609</v>
       </c>
       <c r="C110" t="n">
-        <v>0.709809926843771</v>
+        <v>0.7265175353626577</v>
       </c>
       <c r="D110" t="n">
+        <v>0.7472197764865243</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.1584569833607938</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.08571428571428541</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.4016393442622951</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.01784273156749721</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.009007444714608038</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.3019936752371786</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.185159986805212</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5315,40 @@
         <v>0.02315703913884792</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.7253028756979387</v>
       </c>
       <c r="D111" t="n">
+        <v>0.7733668101154064</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2461817639788375</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.1428571428571423</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.3852459016393442</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01790981148934116</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.00925463135590214</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5359,40 @@
         <v>0.02158553067079486</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.7241067890924064</v>
       </c>
       <c r="D112" t="n">
+        <v>0.5827683203594985</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1846680549001855</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.3688524590163935</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.01539796007404076</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.007623128005686977</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.3997616756038315</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.3849579416130628</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5403,40 @@
         <v>0.02176791996125841</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.6589269073922478</v>
       </c>
       <c r="D113" t="n">
+        <v>0.5951382276761656</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.1828337354279792</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.3142857142857132</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.360655737704918</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.01557881320504</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.007935097819363864</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.4764379669095742</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.4299026884380669</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5447,40 @@
         <v>0.02186666625905124</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.6584749637093874</v>
       </c>
       <c r="D114" t="n">
+        <v>0.6038376325193403</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.253040490092471</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.3428571428571416</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.3278688524590164</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.01547022255260778</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.008029202001901199</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.4713414913607406</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4338198911429985</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5491,40 @@
         <v>0.02153867898440108</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.6580272639337261</v>
       </c>
       <c r="D115" t="n">
+        <v>0.5616883821769387</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2813278429920213</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.428571428571427</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.3278688524590164</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.01476350015572273</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.007682146231428554</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.4915440670974838</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.4348507339600857</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5535,40 @@
         <v>0.02219667111221225</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.5692732268033106</v>
       </c>
       <c r="D116" t="n">
+        <v>0.7086968562106984</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.4298087642032929</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.428571428571427</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.2868852459016394</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.01530376409573572</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.008231968125495277</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.622998304230258</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.4601476166914069</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5579,40 @@
         <v>0.02251808668253012</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.5692284204446542</v>
       </c>
       <c r="D117" t="n">
+        <v>0.7443871806656885</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1293719823863995</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.4571428571428555</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.2540983606557377</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01554614695579695</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.008559153363472233</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.6439066868325771</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.5120814778162626</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5623,40 @@
         <v>0.0229575630928339</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.5691836509413651</v>
       </c>
       <c r="D118" t="n">
+        <v>0.7942454152459493</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.1343608671907201</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.428571428571427</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.2049180327868853</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01596587324455451</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.009008592099676995</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.353526742747147</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.3856382978723404</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +5667,40 @@
         <v>0.02268289161702155</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.5493348740291695</v>
       </c>
       <c r="D119" t="n">
+        <v>0.4357585385871041</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.2292190447807638</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.4571428571428555</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.180327868852459</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.01350266032064395</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.007362135306039155</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.4432100462899308</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.422624938149431</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +5711,40 @@
         <v>0.0223826156962717</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.5493023083979089</v>
       </c>
       <c r="D120" t="n">
+        <v>0.4004687733400385</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.2296626538636201</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.1557377049180328</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.01291932100967223</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.007072841216069768</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.4702873642238416</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.4283564242124361</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +5755,40 @@
         <v>0.02273493454726448</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.5492696769636728</v>
       </c>
       <c r="D121" t="n">
+        <v>0.4430598865486497</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.1619462099284759</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.3714285714285701</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.1557377049180328</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.01327355947427808</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.00745791392689428</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.5762133919978001</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.4653842982022101</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5802,37 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.3343470518419606</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.485714285714284</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.1475409836065574</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.004012369252317558</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.006892516684135471</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.8682524405334799</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.6412048490846115</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5846,37 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.2761289476977726</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.485714285714284</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.1147540983606557</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.00343848363761124</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.006459090513806037</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.06772079380356566</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.2020864258617846</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5890,37 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.2290719322314842</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.5428571428571445</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.07377049180327866</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0004151911515090376</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.004250358354006785</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.3798707548466932</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.4035955797460003</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5934,37 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1913377867609428</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.6571428571428584</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.05737704918032782</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.006695599206662108</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.008786543553774137</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.4807278060406068</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4334487877288471</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +5978,37 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.2393688673294666</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.03278688524590162</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.003248555480823988</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.006271298152367803</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.5354782528988496</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.4419016988289625</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6022,37 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.208318950870241</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.7714285714285722</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.02459016393442626</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.003900269448469135</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.5299142948806086</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.4437778327560613</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6066,37 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.2930869388945644</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="F128" t="n">
+        <v>0.7428571428571402</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.009083252999278306</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.01046931118349289</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.5439204363169714</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.4452210126999835</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6110,37 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.2472063117759944</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.7714285714285722</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.01639344262295078</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.006009638272429299</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.008225728879648564</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.4175626747330308</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.4188314365825499</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6154,37 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.2395442495050409</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
+      <c r="F130" t="n">
+        <v>0.7142857142857117</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.005343595552947308</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.007727779241861805</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.4305880196159311</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4300057727197757</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6198,37 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2535443390388641</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.00503655600445226</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.007490376212361823</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.4825519043035886</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.4334487877288471</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6242,37 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.2896604215604011</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.007374521857845786</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.009170714001161949</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.5133324167010404</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.4429325416460498</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6290,33 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.007728818428580386</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.009413299465301917</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.5123607864705073</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.4416749134092033</v>
       </c>
     </row>
   </sheetData>
